--- a/audible.xlsx
+++ b/audible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,363 +458,2203 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Bride's Runaway Billionaire</t>
+          <t>Shamanslayer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$19.95</t>
+          <t>$32.71</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://m.media-amazon.com/images/I/51jmFkyQCXL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51jmFkyQCXL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lords of the Lance</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$32.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51jmFkyQCXL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51jmFkyQCXL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sons of the Emperor: An Anthology</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$21.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51izMGbsujL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51izMGbsujL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysalis 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51izMGbsujL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51izMGbsujL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wind and Truth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$47.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C6VG99y0L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C6VG99y0L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C6VG99y0L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C6VG99y0L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>System Interference</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51RUfpL0YoL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51RUfpL0YoL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Sleeping Girls</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51RUfpL0YoL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51RUfpL0YoL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Holy Grail of Investing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$18.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31yUgtGAMML._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31yUgtGAMML._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Exception to the Rule</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31yUgtGAMML._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31yUgtGAMML._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Shadow of Doubt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$23.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ire6j29cL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51ire6j29cL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flash of Fire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ire6j29cL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51ire6j29cL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The Grey Wolf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$20.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51YYYu2bB9L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51YYYu2bB9L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Red Sky Mourning</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$28.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51YYYu2bB9L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51YYYu2bB9L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The Fifth Avenue Apartment</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51+GfXStAYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51+GfXStAYL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mushoku Tensei: Jobless Reincarnation, Vol. 9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51+GfXStAYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51+GfXStAYL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The Curse of the Mistwraith</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$24.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C5e7IkR6L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C5e7IkR6L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Primal Hunter 8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C5e7IkR6L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C5e7IkR6L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Trailer Park Parable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$17.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41C7SoQX8ZL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41C7SoQX8ZL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Damaged Goods</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/G/01/audibleweb/arya/navigation/audible_logo._V517446980_.svg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fourth Wing (Part 2 of 2) (Dramatized Adaptation)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$24.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61gD1HYTRmL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/61gD1HYTRmL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The House of Hidden Meanings</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61gD1HYTRmL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/61gD1HYTRmL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The Black Bird Oracle</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$38.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41FD8XmieIL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41FD8XmieIL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The Teacher</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41FD8XmieIL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41FD8XmieIL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>And Then We Rise</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$25.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51n2HNrOKoL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51n2HNrOKoL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Random in Death</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$20.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51n2HNrOKoL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51n2HNrOKoL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>In Too Deep</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41OYUFufbzL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41OYUFufbzL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Bad Weather Friend</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$25.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41OYUFufbzL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41OYUFufbzL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>The Allure of the Multiverse</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$17.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51SIgta6d5L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51SIgta6d5L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gravesong</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51SIgta6d5L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51SIgta6d5L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jake's Magical Market 2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51DCNQJgX0L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51DCNQJgX0L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>The Marshall Family Saga, Book 13</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51DCNQJgX0L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51DCNQJgX0L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Working Class</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/319H49pd8aL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/319H49pd8aL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>War Zone</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/319H49pd8aL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/319H49pd8aL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A Touch of Chaos</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$20.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61KjpKg158L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/61KjpKg158L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Winter Lost</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61KjpKg158L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/61KjpKg158L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>With Any Luck</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31VtJf4JCaL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31VtJf4JCaL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Worthy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31VtJf4JCaL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31VtJf4JCaL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A Crown This Cold and Heavy</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51SCmKUCufL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51SCmKUCufL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Stormcaller</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/G/01/audibleweb/arya/navigation/audible_logo._V517446980_.svg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hostile Takeover</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51wCBUOG4WL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51wCBUOG4WL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Leather &amp; Lark</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51wCBUOG4WL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51wCBUOG4WL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>The Hooker and the Hermit</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31TcjS51QnL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31TcjS51QnL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Born of Blood and Ash</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$32.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31TcjS51QnL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/31TcjS51QnL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dungeon Heroes 3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51wbkfyK5+L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51wbkfyK5+L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The Deconstruction of Christianity</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$20.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51wbkfyK5+L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51wbkfyK5+L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>You Like It Darker</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$33.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/418bum2TCzL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/418bum2TCzL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Only Say Good Things</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$28.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/418bum2TCzL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/418bum2TCzL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Madness</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51tSdEjtLLL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51tSdEjtLLL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>You, Me, and Ulysses S. Grant</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51tSdEjtLLL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51tSdEjtLLL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rosie and the Dreamboat</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41HzVxrhWQL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41HzVxrhWQL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Shattered Will</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$39.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41HzVxrhWQL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41HzVxrhWQL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Discovering Daniel</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41jfLUBFQYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41jfLUBFQYL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The Lantern’s Dance</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$27.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41jfLUBFQYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41jfLUBFQYL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fluke</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$18.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/410yLJsjdSL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/410yLJsjdSL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mushoku Tensei: Jobless Reincarnation, Vol. 8</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/410yLJsjdSL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/410yLJsjdSL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>What Happens at the Lake</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51iQj5suqZL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51iQj5suqZL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>An Assassination on the Agenda</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>$30.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51iQj5suqZL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51iQj5suqZL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>All the Skills 3: A Deck-Building LitRPG</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51J0P3BgZxL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51J0P3BgZxL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Slow Productivity</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/G/01/audibleweb/arya/navigation/audible_logo._V517446980_.svg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Diary of a Psychosis</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41QRb79egwL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41QRb79egwL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Change Your Diet, Change Your Mind</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>$24.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41QRb79egwL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41QRb79egwL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>The Bride's Runaway Billionaire</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51As2m44pvL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51As2m44pvL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>The Legend of Randidly Ghosthound 6: A LitRPG Adventure</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51As2m44pvL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51As2m44pvL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Royal Valentine</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>https://m.media-amazon.com/images/I/41nHVHjMaEL._SL250_.jpg 1x, 
     https://m.media-amazon.com/images/I/41nHVHjMaEL._SL500_.jpg  2x</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hate to Love You</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$24.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Adventurer</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>$24.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/41nHVHjMaEL._SL250_.jpg 1x, 
     https://m.media-amazon.com/images/I/41nHVHjMaEL._SL500_.jpg
      2x</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Irish</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51pwPZrmb1L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51pwPZrmb1L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Chimera's Star</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51pwPZrmb1L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51pwPZrmb1L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Under Siege</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51dP6iW9giL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51dP6iW9giL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Angel of Vengeance</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>$36.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51dP6iW9giL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51dP6iW9giL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Toxic Prey</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/512SESiBPOL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/512SESiBPOL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Everyone on This Train Is a Suspect</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>$28.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/512SESiBPOL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/512SESiBPOL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>The New Menopause</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41IZwJ8vmWL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41IZwJ8vmWL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>The Women</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>$25.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41IZwJ8vmWL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41IZwJ8vmWL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>The King's Ransom</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>$18.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/513+P8rPunL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/513+P8rPunL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Good Energy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/513+P8rPunL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/513+P8rPunL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Enchanting the CEO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51oihZutlAL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51oihZutlAL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Twilight of Embers</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51oihZutlAL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51oihZutlAL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Shadowblade</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51GKRvmB2CL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51GKRvmB2CL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Another Girl</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$17.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/G/01/audibleweb/arya/navigation/audible_logo._V517446980_.svg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Birth of an Empire</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$17.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51LhclpO0-L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51LhclpO0-L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Come Together</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$31.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51LhclpO0-L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51LhclpO0-L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Million Dollar Weekend</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$28.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41JZU8JplCL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41JZU8JplCL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Camino Ghosts</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41JZU8JplCL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41JZU8JplCL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>A Calamity of Souls</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/416IeMhF6qL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/416IeMhF6qL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Joyful Recollections of Trauma</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/416IeMhF6qL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/416IeMhF6qL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Supercommunicators</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$20.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51fnKRhS3KL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51fnKRhS3KL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51fnKRhS3KL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51fnKRhS3KL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Martyr!</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51CoArreQVL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51CoArreQVL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Do the New You</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51CoArreQVL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51CoArreQVL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>The 5 Principles of Parenting</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$22.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41QqtMGAgRL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41QqtMGAgRL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Loving Romeo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>$19.95</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51PT13makzL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51PT13makzL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41QqtMGAgRL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41QqtMGAgRL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>No One Can Know</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$25.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51BgzGFb62L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51BgzGFb62L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lone Wolf</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$25.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51BgzGFb62L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51BgzGFb62L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Legacy</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$18.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51XkBtRMWmL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51XkBtRMWmL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mirrors of Greatness</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$44.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51XkBtRMWmL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51XkBtRMWmL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Think Ahead</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$25.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41RGeVlD2TL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41RGeVlD2TL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dead Man's Hand</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$25.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41RGeVlD2TL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41RGeVlD2TL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Valley of the Dead</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41JeD7ovXTL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/41JeD7ovXTL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Bound by Blood</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/G/01/audibleweb/arya/navigation/audible_logo._V517446980_.svg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The Burning Witch 2: A Humorous Romantic Fantasy</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51euh8QNkHL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51euh8QNkHL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Plan Your Year Like a Millionaire</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$14.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51euh8QNkHL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51euh8QNkHL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Lethal Vengeance</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51TtPlXZIML._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51TtPlXZIML._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>The Total Money Makeover (Expanded and Updated)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$23.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51TtPlXZIML._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51TtPlXZIML._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>The Demon of Unrest</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$38.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C0lyfK3fL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C0lyfK3fL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Ascendance of a Bookworm: Part 1 Volume 1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$17.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51C0lyfK3fL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51C0lyfK3fL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>The Hunger Habit</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$28.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Hhr6ipoYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51Hhr6ipoYL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Never Too Soon</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Hhr6ipoYL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51Hhr6ipoYL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Think Twice</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$31.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51MLpxYQMEL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51MLpxYQMEL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Yoda: Dark Rendezvous</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$22.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51MLpxYQMEL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51MLpxYQMEL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Point Nemo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51uwPeQOOBL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51uwPeQOOBL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>The Mercy of Gods</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$34.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51uwPeQOOBL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51uwPeQOOBL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>My Quiet Blacksmith Life in Another World: Volume 5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$39.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51MGmu5myPL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51MGmu5myPL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Wraith Squadron</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51MGmu5myPL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51MGmu5myPL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Crosshairs</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$19.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51gCtUf5zUL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51gCtUf5zUL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Dreamer</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51gCtUf5zUL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51gCtUf5zUL._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Millionaire Habits</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$19.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51LpgdZC97L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51LpgdZC97L._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>One Night</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$19.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51LpgdZC97L._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51LpgdZC97L._SL500_.jpg
+     2x</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Rise of the Weakest Summoner: Volume 8</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>$54.99</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51PT13makzL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51PT13makzL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bound by Blood</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$24.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41HWUTntSlL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/41HWUTntSlL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Twilight of Embers</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41HWUTntSlL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/41HWUTntSlL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Stormcaller</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$24.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/512f-NGdEJL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/512f-NGdEJL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mushoku Tensei: Jobless Reincarnation, Vol. 8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/512f-NGdEJL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/512f-NGdEJL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Scum of the Earth</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/518W952xn-L._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/518W952xn-L._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Shadow of Doubt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$23.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/518W952xn-L._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/518W952xn-L._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hostile Takeover</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/515LtF1NkGL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/515LtF1NkGL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Wind and Truth</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$47.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/515LtF1NkGL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/515LtF1NkGL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Operation Liberty</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51weLXR8+rL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51weLXR8+rL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>The Nightmare in Him</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$27.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51weLXR8+rL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51weLXR8+rL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>On the Edge</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>$24.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/517AyiSB2ML._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/517AyiSB2ML._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Dreamer</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>$19.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/517AyiSB2ML._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/517AyiSB2ML._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Goblin Girls Do It Better</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>$48.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51y7-W2t5RL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51y7-W2t5RL._SL500_.jpg  2x</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Shattered Races</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>$48.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51y7-W2t5RL._SL250_.jpg 1x, 
-    https://m.media-amazon.com/images/I/51y7-W2t5RL._SL500_.jpg
-     2x</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>The Holy Grail of Investing</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>$18.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/G/01/Audible/en_US/images/generic/img-coverart-prod-unavailable._V536565590_.svg 1x, 
-    https://m.media-amazon.com/images/G/01/Audible/en_US/images/generic/img-coverart-prod-unavailable._V536565590_.svg  2x</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Enchanting the CEO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>$19.95</t>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51cLQFTvTeL._SL250_.jpg 1x, 
+    https://m.media-amazon.com/images/I/51cLQFTvTeL._SL500_.jpg  2x</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Three-Inch Teeth</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>$24.49</t>
         </is>
       </c>
     </row>
